--- a/ValueSet-functional-score-codes-vs.xlsx
+++ b/ValueSet-functional-score-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T10:08:33+00:00</t>
+    <t>2026-02-09T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-functional-score-codes-vs.xlsx
+++ b/ValueSet-functional-score-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T11:30:19+00:00</t>
+    <t>2026-02-09T12:15:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-functional-score-codes-vs.xlsx
+++ b/ValueSet-functional-score-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:15:55+00:00</t>
+    <t>2026-02-09T12:28:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-functional-score-codes-vs.xlsx
+++ b/ValueSet-functional-score-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:28:26+00:00</t>
+    <t>2026-02-10T07:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-functional-score-codes-vs.xlsx
+++ b/ValueSet-functional-score-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T07:57:24+00:00</t>
+    <t>2026-02-10T12:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-functional-score-codes-vs.xlsx
+++ b/ValueSet-functional-score-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T12:50:25+00:00</t>
+    <t>2026-02-16T11:22:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-functional-score-codes-vs.xlsx
+++ b/ValueSet-functional-score-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-16T11:22:57+00:00</t>
+    <t>2026-02-17T08:49:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-functional-score-codes-vs.xlsx
+++ b/ValueSet-functional-score-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:49:13+00:00</t>
+    <t>2026-02-17T08:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-functional-score-codes-vs.xlsx
+++ b/ValueSet-functional-score-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:59:32+00:00</t>
+    <t>2026-02-17T12:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-functional-score-codes-vs.xlsx
+++ b/ValueSet-functional-score-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T12:24:33+00:00</t>
+    <t>2026-02-18T13:09:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-functional-score-codes-vs.xlsx
+++ b/ValueSet-functional-score-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:09:07+00:00</t>
+    <t>2026-02-18T13:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-functional-score-codes-vs.xlsx
+++ b/ValueSet-functional-score-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:35:35+00:00</t>
+    <t>2026-02-18T14:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,10 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Codes for key functional scores used in stroke (mRS, NIHSS).</t>
+    <t>This ValueSet defines the allowable Observation.code concepts for stroke functional and severity scoring instruments represented in this guide: modified Rankin Scale (mRS) and NIH Stroke Scale (NIHSS), expressed as SNOMED CT observable entities.
+It is intended to be bound to Observation.code in the FunctionalScoreObservationProfile. Downstream validation/invariants then enforce the appropriate datatype of Observation.value[x]:
+- mRS is captured as a coded ordinal category (valueCodeableConcept bound to MRsScoreVS).
+- NIHSS is captured as a numeric total score (valueInteger), representing the summed NIHSS total rather than item-level subscores.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ValueSet-functional-score-codes-vs.xlsx
+++ b/ValueSet-functional-score-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T14:43:59+00:00</t>
+    <t>2026-02-19T08:12:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-functional-score-codes-vs.xlsx
+++ b/ValueSet-functional-score-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:12:22+00:00</t>
+    <t>2026-02-19T08:49:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-functional-score-codes-vs.xlsx
+++ b/ValueSet-functional-score-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:49:26+00:00</t>
+    <t>2026-02-19T09:19:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-functional-score-codes-vs.xlsx
+++ b/ValueSet-functional-score-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:19:55+00:00</t>
+    <t>2026-02-19T09:59:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-functional-score-codes-vs.xlsx
+++ b/ValueSet-functional-score-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:59:51+00:00</t>
+    <t>2026-02-19T10:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-functional-score-codes-vs.xlsx
+++ b/ValueSet-functional-score-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:15:59+00:00</t>
+    <t>2026-02-19T10:59:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-functional-score-codes-vs.xlsx
+++ b/ValueSet-functional-score-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:59:57+00:00</t>
+    <t>2026-02-19T11:36:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-functional-score-codes-vs.xlsx
+++ b/ValueSet-functional-score-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T11:36:03+00:00</t>
+    <t>2026-02-19T12:37:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,10 +81,14 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This ValueSet defines the allowable Observation.code concepts for stroke functional and severity scoring instruments represented in this guide: modified Rankin Scale (mRS) and NIH Stroke Scale (NIHSS), expressed as SNOMED CT observable entities.
-It is intended to be bound to Observation.code in the FunctionalScoreObservationProfile. Downstream validation/invariants then enforce the appropriate datatype of Observation.value[x]:
-- mRS is captured as a coded ordinal category (valueCodeableConcept bound to MRsScoreVS).
-- NIHSS is captured as a numeric total score (valueInteger), representing the summed NIHSS total rather than item-level subscores.</t>
+    <t>This ValueSet constrains `Observation.code` for functional outcome and severity instruments represented in this guide:
+- Modified Rankin Scale score (mRS)
+- NIH Stroke Scale total score (NIHSS)
+**Primary use-case**
+- Bind to `Observation.code` in `FunctionalScoreObservationProfile`.
+**Datatype expectations enforced via invariants**
+- mRS: `Observation.valueCodeableConcept` bound to MRsScoreVS (ordinal categories 0–6).
+- NIHSS: `Observation.valueInteger` as total NIHSS score.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ValueSet-functional-score-codes-vs.xlsx
+++ b/ValueSet-functional-score-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T12:37:09+00:00</t>
+    <t>2026-02-19T14:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-functional-score-codes-vs.xlsx
+++ b/ValueSet-functional-score-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:25:22+00:00</t>
+    <t>2026-02-19T14:52:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-functional-score-codes-vs.xlsx
+++ b/ValueSet-functional-score-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:52:32+00:00</t>
+    <t>2026-02-20T08:36:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-functional-score-codes-vs.xlsx
+++ b/ValueSet-functional-score-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:36:31+00:00</t>
+    <t>2026-02-20T08:43:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-functional-score-codes-vs.xlsx
+++ b/ValueSet-functional-score-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:43:58+00:00</t>
+    <t>2026-02-20T08:47:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-functional-score-codes-vs.xlsx
+++ b/ValueSet-functional-score-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:47:00+00:00</t>
+    <t>2026-02-20T09:39:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-functional-score-codes-vs.xlsx
+++ b/ValueSet-functional-score-codes-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:39:34+00:00</t>
+    <t>2026-02-20T09:50:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-functional-score-codes-vs.xlsx
+++ b/ValueSet-functional-score-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:50:49+00:00</t>
+    <t>2026-02-20T10:05:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-functional-score-codes-vs.xlsx
+++ b/ValueSet-functional-score-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:05:07+00:00</t>
+    <t>2026-02-20T10:17:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-functional-score-codes-vs.xlsx
+++ b/ValueSet-functional-score-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:17:22+00:00</t>
+    <t>2026-02-20T10:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-functional-score-codes-vs.xlsx
+++ b/ValueSet-functional-score-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:31:35+00:00</t>
+    <t>2026-02-24T10:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
